--- a/Config/Registration.xlsx
+++ b/Config/Registration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LouisVincentGalvez\MeralcoOnlinePortal\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ejarcebido/Documents/Projects/Python/MeralcoOnline/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8712536F-1422-425B-AC41-A75A3247A8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32780BA5-E248-E148-8DA6-EC393AB767C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7845" yWindow="645" windowWidth="18705" windowHeight="11235" tabRatio="673" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7840" yWindow="640" windowWidth="18700" windowHeight="11240" tabRatio="673" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AT - Test Suite" sheetId="8" r:id="rId1"/>
@@ -47,14 +47,14 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <customWorkbookViews>
+    <customWorkbookView name="Yvi  Aligam - Personal View" guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
+    <customWorkbookView name="Sheena Marie F. Diaz (CheQ Systems Inc.) - Personal View" guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="674" activeSheetId="4"/>
+    <customWorkbookView name="Ma. Diana D. Carbon (CheQ Systems Inc.) - Personal View" guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="2"/>
+    <customWorkbookView name="Ayezha Abanador (CheQ Systems Inc.) - Personal View" guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" mergeInterval="0" personalView="1" maximized="1" xWindow="70" yWindow="-8" windowWidth="1218" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
+    <customWorkbookView name="Angelito P. Magat (CheQ Systems Inc.) - Personal View" guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="583" activeSheetId="2"/>
+    <customWorkbookView name="Laminuette Emata - Personal View" guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="673" activeSheetId="2"/>
+    <customWorkbookView name="Jerome Allan G. Florendo - Personal View" guid="{7089F64A-F77B-480F-9643-8730755F04D6}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
     <customWorkbookView name="Ayezha Abanador - Personal View" guid="{26B7875D-E9B2-4779-90EE-77F4989FB450}" mergeInterval="0" personalView="1" maximized="1" xWindow="66" yWindow="-8" windowWidth="1222" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Jerome Allan G. Florendo - Personal View" guid="{7089F64A-F77B-480F-9643-8730755F04D6}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Laminuette Emata - Personal View" guid="{B7277530-916C-4FDB-A0C1-5832DC38DBC2}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="673" activeSheetId="2"/>
-    <customWorkbookView name="Angelito P. Magat (CheQ Systems Inc.) - Personal View" guid="{BF3BCAA5-9B2B-404B-A918-0267B0D35499}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1010" tabRatio="583" activeSheetId="2"/>
-    <customWorkbookView name="Ayezha Abanador (CheQ Systems Inc.) - Personal View" guid="{54DE646A-6982-40D7-B62A-C504F75DF2DD}" mergeInterval="0" personalView="1" maximized="1" xWindow="70" yWindow="-8" windowWidth="1218" windowHeight="1040" tabRatio="673" activeSheetId="4"/>
-    <customWorkbookView name="Ma. Diana D. Carbon (CheQ Systems Inc.) - Personal View" guid="{30E756A4-DD1F-441E-98C9-1C6EB5A29F02}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="2"/>
-    <customWorkbookView name="Sheena Marie F. Diaz (CheQ Systems Inc.) - Personal View" guid="{C5303581-2D9C-42C1-9BA2-807707C51816}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="674" activeSheetId="4"/>
-    <customWorkbookView name="Yvi  Aligam - Personal View" guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="673" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1338,7 +1338,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1388,7 +1388,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1435,13 +1435,13 @@
       <sz val="11"/>
       <color rgb="FF444444"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF70AD47"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1674,7 +1674,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1878,12 +1878,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1905,8 +1899,29 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1930,27 +1945,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3062,42 +3056,42 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="116.42578125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="73.7109375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="19" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="19"/>
-    <col min="10" max="10" width="9.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9.140625" style="19"/>
-    <col min="14" max="14" width="8.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="19"/>
+    <col min="1" max="1" width="13.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="116.5" style="19" customWidth="1"/>
+    <col min="3" max="3" width="73.6640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="19"/>
+    <col min="10" max="10" width="9.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.1640625" style="19"/>
+    <col min="14" max="14" width="8.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="24" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:7" s="24" customFormat="1" ht="14.5" customHeight="1">
+      <c r="A1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-    </row>
-    <row r="2" spans="1:7" s="24" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-    </row>
-    <row r="3" spans="1:7" s="24" customFormat="1">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+    </row>
+    <row r="2" spans="1:7" s="24" customFormat="1" ht="14.5" customHeight="1">
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+    </row>
+    <row r="3" spans="1:7" s="24" customFormat="1" ht="15">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3118,16 +3112,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="24" customFormat="1">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="91"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="89"/>
+    </row>
+    <row r="5" spans="1:7" ht="15">
       <c r="A5" s="25" t="s">
         <v>9</v>
       </c>
@@ -3141,7 +3135,7 @@
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
@@ -3157,7 +3151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
@@ -3173,7 +3167,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.149999999999999" customHeight="1">
+    <row r="8" spans="1:7" ht="16.25" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
@@ -3189,7 +3183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="15">
       <c r="A9" s="25" t="s">
         <v>265</v>
       </c>
@@ -3203,7 +3197,7 @@
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="15">
       <c r="A10" s="11" t="s">
         <v>264</v>
       </c>
@@ -3215,7 +3209,7 @@
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="15">
       <c r="A11" s="11" t="s">
         <v>265</v>
       </c>
@@ -3230,7 +3224,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="29"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" s="11" t="s">
         <v>266</v>
       </c>
@@ -3244,7 +3238,7 @@
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="15">
       <c r="A13" s="11" t="s">
         <v>266</v>
       </c>
@@ -3259,7 +3253,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="15">
       <c r="A14" s="25" t="s">
         <v>267</v>
       </c>
@@ -3285,7 +3279,7 @@
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="15">
       <c r="A16" s="11" t="s">
         <v>267</v>
       </c>
@@ -3300,7 +3294,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="29"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="15">
       <c r="A17" s="25" t="s">
         <v>269</v>
       </c>
@@ -3314,7 +3308,7 @@
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="15">
       <c r="A18" s="11" t="s">
         <v>269</v>
       </c>
@@ -3329,7 +3323,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="29"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="15">
       <c r="A19" s="25" t="s">
         <v>270</v>
       </c>
@@ -3343,7 +3337,7 @@
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="15">
       <c r="A20" s="11" t="s">
         <v>270</v>
       </c>
@@ -3359,16 +3353,16 @@
       <c r="G20" s="46"/>
     </row>
     <row r="21" spans="1:7" s="24" customFormat="1">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="91"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="89"/>
+    </row>
+    <row r="22" spans="1:7" ht="15">
       <c r="A22" s="25" t="s">
         <v>271</v>
       </c>
@@ -3382,7 +3376,7 @@
       <c r="E22" s="28"/>
       <c r="F22" s="28"/>
     </row>
-    <row r="23" spans="1:7" ht="25.5">
+    <row r="23" spans="1:7" ht="30">
       <c r="A23" s="11" t="s">
         <v>300</v>
       </c>
@@ -3394,7 +3388,7 @@
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="15">
       <c r="A24" s="11" t="s">
         <v>271</v>
       </c>
@@ -3410,7 +3404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="15">
       <c r="A25" s="11" t="s">
         <v>271</v>
       </c>
@@ -3426,7 +3420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="15">
       <c r="A26" s="25" t="s">
         <v>272</v>
       </c>
@@ -3440,7 +3434,7 @@
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
     </row>
-    <row r="27" spans="1:7" ht="25.5">
+    <row r="27" spans="1:7" ht="30">
       <c r="A27" s="11" t="s">
         <v>299</v>
       </c>
@@ -3452,7 +3446,7 @@
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="15">
       <c r="A28" s="11" t="s">
         <v>272</v>
       </c>
@@ -3469,7 +3463,7 @@
       </c>
       <c r="G28" s="29"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="15">
       <c r="A29" s="11" t="s">
         <v>272</v>
       </c>
@@ -3486,7 +3480,7 @@
       </c>
       <c r="G29" s="29"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="15">
       <c r="A30" s="25" t="s">
         <v>273</v>
       </c>
@@ -3500,7 +3494,7 @@
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="15">
       <c r="A31" s="11" t="s">
         <v>273</v>
       </c>
@@ -3517,7 +3511,7 @@
       </c>
       <c r="G31" s="29"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="15">
       <c r="A32" s="11" t="s">
         <v>273</v>
       </c>
@@ -3534,7 +3528,7 @@
       </c>
       <c r="G32" s="29"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="15">
       <c r="A33" s="25" t="s">
         <v>274</v>
       </c>
@@ -3548,7 +3542,7 @@
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
     </row>
-    <row r="34" spans="1:8" ht="14.25">
+    <row r="34" spans="1:8" ht="15">
       <c r="A34" s="11" t="s">
         <v>274</v>
       </c>
@@ -3566,7 +3560,7 @@
       <c r="G34" s="83"/>
       <c r="H34" s="46"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" ht="15">
       <c r="A35" s="11" t="s">
         <v>274</v>
       </c>
@@ -3583,16 +3577,16 @@
       </c>
     </row>
     <row r="36" spans="1:8" s="24" customFormat="1">
-      <c r="A36" s="89" t="s">
+      <c r="A36" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="90"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="91"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="B36" s="88"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="89"/>
+    </row>
+    <row r="37" spans="1:8" ht="15">
       <c r="A37" s="25" t="s">
         <v>275</v>
       </c>
@@ -3606,7 +3600,7 @@
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" ht="15">
       <c r="A38" s="11" t="s">
         <v>275</v>
       </c>
@@ -3621,7 +3615,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="29"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" ht="15">
       <c r="A39" s="11" t="s">
         <v>275</v>
       </c>
@@ -3636,7 +3630,7 @@
       <c r="F39" s="21"/>
       <c r="G39" s="29"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" ht="15">
       <c r="A40" s="11" t="s">
         <v>275</v>
       </c>
@@ -3651,7 +3645,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="29"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" ht="15">
       <c r="A41" s="11" t="s">
         <v>275</v>
       </c>
@@ -3666,7 +3660,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" ht="15">
       <c r="A42" s="25" t="s">
         <v>276</v>
       </c>
@@ -3680,7 +3674,7 @@
       <c r="E42" s="28"/>
       <c r="F42" s="28"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" ht="15">
       <c r="A43" s="11" t="s">
         <v>276</v>
       </c>
@@ -3695,7 +3689,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="29"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" ht="15">
       <c r="A44" s="11" t="s">
         <v>276</v>
       </c>
@@ -3710,7 +3704,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="29"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" ht="15">
       <c r="A45" s="11" t="s">
         <v>276</v>
       </c>
@@ -3725,7 +3719,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="29"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" ht="15">
       <c r="A46" s="11" t="s">
         <v>276</v>
       </c>
@@ -3741,16 +3735,16 @@
       <c r="G46" s="29"/>
     </row>
     <row r="47" spans="1:8" s="24" customFormat="1">
-      <c r="A47" s="89" t="s">
+      <c r="A47" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="90"/>
-      <c r="C47" s="90"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="91"/>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="B47" s="88"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="89"/>
+    </row>
+    <row r="48" spans="1:8" ht="15">
       <c r="A48" s="25" t="s">
         <v>277</v>
       </c>
@@ -3776,7 +3770,7 @@
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" ht="15">
       <c r="A50" s="11" t="s">
         <v>277</v>
       </c>
@@ -3792,7 +3786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" ht="15">
       <c r="A51" s="11" t="s">
         <v>277</v>
       </c>
@@ -3808,7 +3802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" ht="15">
       <c r="A52" s="11" t="s">
         <v>277</v>
       </c>
@@ -3824,7 +3818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" ht="15">
       <c r="A53" s="11" t="s">
         <v>277</v>
       </c>
@@ -3840,7 +3834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" ht="15">
       <c r="A54" s="11" t="s">
         <v>277</v>
       </c>
@@ -3856,7 +3850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" ht="15">
       <c r="A55" s="11" t="s">
         <v>277</v>
       </c>
@@ -3872,7 +3866,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" ht="15">
       <c r="A56" s="25" t="s">
         <v>278</v>
       </c>
@@ -3898,7 +3892,7 @@
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" ht="15">
       <c r="A58" s="11" t="s">
         <v>278</v>
       </c>
@@ -3915,7 +3909,7 @@
       </c>
       <c r="G58" s="29"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" ht="15">
       <c r="A59" s="11" t="s">
         <v>278</v>
       </c>
@@ -3932,7 +3926,7 @@
       </c>
       <c r="G59" s="29"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" ht="15">
       <c r="A60" s="11" t="s">
         <v>278</v>
       </c>
@@ -3949,7 +3943,7 @@
       </c>
       <c r="G60" s="29"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" ht="15">
       <c r="A61" s="11" t="s">
         <v>278</v>
       </c>
@@ -3966,7 +3960,7 @@
       </c>
       <c r="G61" s="29"/>
     </row>
-    <row r="62" spans="1:7" ht="16.149999999999999" customHeight="1">
+    <row r="62" spans="1:7" ht="16.25" customHeight="1">
       <c r="A62" s="11" t="s">
         <v>278</v>
       </c>
@@ -3983,7 +3977,7 @@
       </c>
       <c r="G62" s="29"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" ht="15">
       <c r="A63" s="11" t="s">
         <v>278</v>
       </c>
@@ -4000,7 +3994,7 @@
       </c>
       <c r="G63" s="29"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" ht="15">
       <c r="A64" s="11" t="s">
         <v>278</v>
       </c>
@@ -4017,7 +4011,7 @@
       </c>
       <c r="G64" s="29"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" ht="15">
       <c r="A65" s="11" t="s">
         <v>278</v>
       </c>
@@ -4035,16 +4029,16 @@
       <c r="G65" s="29"/>
     </row>
     <row r="66" spans="1:7" s="24" customFormat="1">
-      <c r="A66" s="89" t="s">
+      <c r="A66" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="90"/>
-      <c r="C66" s="90"/>
-      <c r="D66" s="90"/>
-      <c r="E66" s="90"/>
-      <c r="F66" s="91"/>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="B66" s="88"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="88"/>
+      <c r="E66" s="88"/>
+      <c r="F66" s="89"/>
+    </row>
+    <row r="67" spans="1:7" ht="15">
       <c r="A67" s="25" t="s">
         <v>279</v>
       </c>
@@ -4058,7 +4052,7 @@
       <c r="E67" s="28"/>
       <c r="F67" s="28"/>
     </row>
-    <row r="68" spans="1:7" ht="38.25">
+    <row r="68" spans="1:7" ht="45">
       <c r="A68" s="11" t="s">
         <v>292</v>
       </c>
@@ -4070,7 +4064,7 @@
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" ht="15">
       <c r="A69" s="11" t="s">
         <v>279</v>
       </c>
@@ -4085,7 +4079,7 @@
       <c r="F69" s="11"/>
       <c r="G69" s="29"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" ht="15">
       <c r="A70" s="25" t="s">
         <v>280</v>
       </c>
@@ -4099,7 +4093,7 @@
       <c r="E70" s="28"/>
       <c r="F70" s="28"/>
     </row>
-    <row r="71" spans="1:7" ht="38.25">
+    <row r="71" spans="1:7" ht="45">
       <c r="A71" s="11" t="s">
         <v>291</v>
       </c>
@@ -4111,7 +4105,7 @@
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" ht="15">
       <c r="A72" s="11" t="s">
         <v>280</v>
       </c>
@@ -4126,7 +4120,7 @@
       <c r="F72" s="11"/>
       <c r="G72" s="29"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" ht="15">
       <c r="A73" s="25" t="s">
         <v>281</v>
       </c>
@@ -4140,7 +4134,7 @@
       <c r="E73" s="28"/>
       <c r="F73" s="28"/>
     </row>
-    <row r="74" spans="1:7" ht="42.6" customHeight="1">
+    <row r="74" spans="1:7" ht="42.5" customHeight="1">
       <c r="A74" s="11" t="s">
         <v>290</v>
       </c>
@@ -4152,7 +4146,7 @@
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" ht="15">
       <c r="A75" s="11" t="s">
         <v>281</v>
       </c>
@@ -4166,7 +4160,7 @@
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" ht="15">
       <c r="A76" s="25" t="s">
         <v>282</v>
       </c>
@@ -4180,7 +4174,7 @@
       <c r="E76" s="28"/>
       <c r="F76" s="28"/>
     </row>
-    <row r="77" spans="1:7" ht="42.6" customHeight="1">
+    <row r="77" spans="1:7" ht="42.5" customHeight="1">
       <c r="A77" s="11" t="s">
         <v>289</v>
       </c>
@@ -4193,7 +4187,7 @@
       <c r="F77" s="11"/>
       <c r="G77" s="21"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" ht="15">
       <c r="A78" s="11" t="s">
         <v>282</v>
       </c>
@@ -4208,16 +4202,16 @@
       <c r="F78" s="11"/>
     </row>
     <row r="79" spans="1:7" s="24" customFormat="1">
-      <c r="A79" s="89" t="s">
+      <c r="A79" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="90"/>
-      <c r="C79" s="90"/>
-      <c r="D79" s="90"/>
-      <c r="E79" s="90"/>
-      <c r="F79" s="91"/>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="B79" s="88"/>
+      <c r="C79" s="88"/>
+      <c r="D79" s="88"/>
+      <c r="E79" s="88"/>
+      <c r="F79" s="89"/>
+    </row>
+    <row r="80" spans="1:7" ht="15">
       <c r="A80" s="25" t="s">
         <v>283</v>
       </c>
@@ -4231,7 +4225,7 @@
       <c r="E80" s="28"/>
       <c r="F80" s="28"/>
     </row>
-    <row r="81" spans="1:7" ht="38.25">
+    <row r="81" spans="1:7" ht="45">
       <c r="A81" s="11" t="s">
         <v>293</v>
       </c>
@@ -4243,7 +4237,7 @@
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" ht="15">
       <c r="A82" s="11" t="s">
         <v>283</v>
       </c>
@@ -4259,7 +4253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" ht="15">
       <c r="A83" s="11" t="s">
         <v>283</v>
       </c>
@@ -4275,7 +4269,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" ht="15">
       <c r="A84" s="25" t="s">
         <v>284</v>
       </c>
@@ -4289,7 +4283,7 @@
       <c r="E84" s="28"/>
       <c r="F84" s="28"/>
     </row>
-    <row r="85" spans="1:7" ht="38.25">
+    <row r="85" spans="1:7" ht="45">
       <c r="A85" s="11" t="s">
         <v>294</v>
       </c>
@@ -4301,7 +4295,7 @@
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" ht="15">
       <c r="A86" s="11" t="s">
         <v>284</v>
       </c>
@@ -4317,7 +4311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" ht="15">
       <c r="A87" s="11" t="s">
         <v>284</v>
       </c>
@@ -4333,7 +4327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" ht="15">
       <c r="A88" s="25" t="s">
         <v>285</v>
       </c>
@@ -4347,7 +4341,7 @@
       <c r="E88" s="28"/>
       <c r="F88" s="28"/>
     </row>
-    <row r="89" spans="1:7" ht="38.25">
+    <row r="89" spans="1:7" ht="45">
       <c r="A89" s="11" t="s">
         <v>296</v>
       </c>
@@ -4359,7 +4353,7 @@
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" ht="15">
       <c r="A90" s="11" t="s">
         <v>285</v>
       </c>
@@ -4376,7 +4370,7 @@
       </c>
       <c r="G90" s="29"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" ht="15">
       <c r="A91" s="11" t="s">
         <v>285</v>
       </c>
@@ -4393,7 +4387,7 @@
       </c>
       <c r="G91" s="29"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" ht="15">
       <c r="A92" s="25" t="s">
         <v>286</v>
       </c>
@@ -4407,7 +4401,7 @@
       <c r="E92" s="28"/>
       <c r="F92" s="28"/>
     </row>
-    <row r="93" spans="1:7" ht="38.25">
+    <row r="93" spans="1:7" ht="45">
       <c r="A93" s="11" t="s">
         <v>295</v>
       </c>
@@ -4420,7 +4414,7 @@
       <c r="F93" s="11"/>
       <c r="G93" s="21"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" ht="15">
       <c r="A94" s="11" t="s">
         <v>286</v>
       </c>
@@ -4436,7 +4430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" ht="15">
       <c r="A95" s="11" t="s">
         <v>286</v>
       </c>
@@ -4453,14 +4447,14 @@
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="89" t="s">
+      <c r="A96" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="B96" s="90"/>
-      <c r="C96" s="90"/>
-      <c r="D96" s="90"/>
-      <c r="E96" s="90"/>
-      <c r="F96" s="91"/>
+      <c r="B96" s="88"/>
+      <c r="C96" s="88"/>
+      <c r="D96" s="88"/>
+      <c r="E96" s="88"/>
+      <c r="F96" s="89"/>
     </row>
     <row r="97" spans="1:8" ht="15">
       <c r="A97" s="25" t="s">
@@ -4507,7 +4501,7 @@
       <c r="F99" s="11"/>
       <c r="H99" s="67"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" ht="15">
       <c r="A100" s="11" t="s">
         <v>287</v>
       </c>
@@ -4521,7 +4515,7 @@
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" ht="15">
       <c r="A101" s="11" t="s">
         <v>287</v>
       </c>
@@ -4535,7 +4529,7 @@
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" ht="15">
       <c r="A102" s="25" t="s">
         <v>288</v>
       </c>
@@ -4549,7 +4543,7 @@
       <c r="E102" s="28"/>
       <c r="F102" s="28"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" ht="15">
       <c r="A103" s="11" t="s">
         <v>288</v>
       </c>
@@ -4564,7 +4558,7 @@
       <c r="F103" s="11"/>
       <c r="G103" s="21"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" ht="15">
       <c r="A104" s="11" t="s">
         <v>288</v>
       </c>
@@ -4578,7 +4572,7 @@
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" ht="15">
       <c r="A105" s="11" t="s">
         <v>288</v>
       </c>
@@ -4592,7 +4586,7 @@
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" ht="15">
       <c r="A106" s="11" t="s">
         <v>288</v>
       </c>
@@ -5012,26 +5006,26 @@
   </sheetPr>
   <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="65.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="65.33203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="37" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="87" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="95.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="92.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="19" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="19" customWidth="1"/>
-    <col min="11" max="16384" width="65.28515625" style="19"/>
+    <col min="2" max="2" width="13.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="92.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="19" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" style="19" customWidth="1"/>
+    <col min="11" max="16384" width="65.33203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="9" t="s">
         <v>104</v>
       </c>
@@ -5052,19 +5046,19 @@
       </c>
       <c r="G1" s="41"/>
     </row>
-    <row r="2" spans="1:10" s="20" customFormat="1" ht="13.9" customHeight="1">
-      <c r="A2" s="95" t="s">
+    <row r="2" spans="1:10" s="20" customFormat="1" ht="14" customHeight="1">
+      <c r="A2" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="42"/>
       <c r="I2" s="42"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="15">
       <c r="A3" s="13" t="s">
         <v>301</v>
       </c>
@@ -5079,10 +5073,10 @@
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
     </row>
     <row r="4" spans="1:10" ht="15">
       <c r="A4" s="13" t="s">
@@ -5121,14 +5115,14 @@
       <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:10" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="95" t="s">
+      <c r="A6" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
       <c r="G6" s="34"/>
       <c r="H6" s="19"/>
       <c r="I6" s="34"/>
@@ -5195,16 +5189,16 @@
       <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" s="20" customFormat="1">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-    </row>
-    <row r="11" spans="1:10" s="20" customFormat="1" ht="13.9" customHeight="1">
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+    </row>
+    <row r="11" spans="1:10" s="20" customFormat="1" ht="14" customHeight="1">
       <c r="A11" s="15" t="s">
         <v>303</v>
       </c>
@@ -5220,7 +5214,7 @@
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:10" s="20" customFormat="1">
+    <row r="12" spans="1:10" s="20" customFormat="1" ht="15">
       <c r="A12" s="15" t="s">
         <v>303</v>
       </c>
@@ -5236,7 +5230,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" spans="1:10" s="20" customFormat="1" ht="157.15" customHeight="1">
+    <row r="13" spans="1:10" s="20" customFormat="1" ht="157.25" customHeight="1">
       <c r="A13" s="15" t="s">
         <v>303</v>
       </c>
@@ -5252,7 +5246,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="1:10" s="20" customFormat="1">
+    <row r="14" spans="1:10" s="20" customFormat="1" ht="15">
       <c r="A14" s="15" t="s">
         <v>303</v>
       </c>
@@ -5269,16 +5263,16 @@
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:10" s="20" customFormat="1">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-    </row>
-    <row r="16" spans="1:10" s="20" customFormat="1">
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+    </row>
+    <row r="16" spans="1:10" s="20" customFormat="1" ht="15">
       <c r="A16" s="15" t="s">
         <v>304</v>
       </c>
@@ -5310,7 +5304,7 @@
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
-    <row r="18" spans="1:6" s="20" customFormat="1">
+    <row r="18" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A18" s="15" t="s">
         <v>304</v>
       </c>
@@ -5326,7 +5320,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" s="20" customFormat="1">
+    <row r="19" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A19" s="15" t="s">
         <v>304</v>
       </c>
@@ -5342,7 +5336,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" s="20" customFormat="1">
+    <row r="20" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A20" s="15" t="s">
         <v>304</v>
       </c>
@@ -5358,7 +5352,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" s="20" customFormat="1">
+    <row r="21" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A21" s="15" t="s">
         <v>304</v>
       </c>
@@ -5374,7 +5368,7 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" s="20" customFormat="1">
+    <row r="22" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A22" s="15" t="s">
         <v>304</v>
       </c>
@@ -5390,7 +5384,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" s="20" customFormat="1" ht="25.5">
+    <row r="23" spans="1:6" s="20" customFormat="1" ht="30">
       <c r="A23" s="15" t="s">
         <v>304</v>
       </c>
@@ -5407,16 +5401,16 @@
       <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6" s="20" customFormat="1">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-    </row>
-    <row r="25" spans="1:6" s="20" customFormat="1">
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+    </row>
+    <row r="25" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A25" s="15" t="s">
         <v>305</v>
       </c>
@@ -5448,7 +5442,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" s="20" customFormat="1">
+    <row r="27" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A27" s="15" t="s">
         <v>305</v>
       </c>
@@ -5464,7 +5458,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" s="20" customFormat="1">
+    <row r="28" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A28" s="15" t="s">
         <v>305</v>
       </c>
@@ -5480,7 +5474,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" s="20" customFormat="1">
+    <row r="29" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A29" s="15" t="s">
         <v>305</v>
       </c>
@@ -5496,7 +5490,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" s="20" customFormat="1">
+    <row r="30" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A30" s="15" t="s">
         <v>305</v>
       </c>
@@ -5512,7 +5506,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:6" s="20" customFormat="1">
+    <row r="31" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A31" s="15" t="s">
         <v>305</v>
       </c>
@@ -5528,7 +5522,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:6" s="20" customFormat="1" ht="25.5">
+    <row r="32" spans="1:6" s="20" customFormat="1" ht="30">
       <c r="A32" s="15" t="s">
         <v>305</v>
       </c>
@@ -5545,16 +5539,16 @@
       <c r="F32" s="12"/>
     </row>
     <row r="33" spans="1:6" s="20" customFormat="1">
-      <c r="A33" s="95" t="s">
+      <c r="A33" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="95"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-    </row>
-    <row r="34" spans="1:6" s="20" customFormat="1">
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+    </row>
+    <row r="34" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A34" s="15" t="s">
         <v>306</v>
       </c>
@@ -5570,7 +5564,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" s="20" customFormat="1" ht="153">
+    <row r="35" spans="1:6" s="20" customFormat="1" ht="180">
       <c r="A35" s="15" t="s">
         <v>306</v>
       </c>
@@ -5586,7 +5580,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
     </row>
-    <row r="36" spans="1:6" s="20" customFormat="1">
+    <row r="36" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A36" s="15" t="s">
         <v>306</v>
       </c>
@@ -5602,7 +5596,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
     </row>
-    <row r="37" spans="1:6" s="20" customFormat="1">
+    <row r="37" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A37" s="15" t="s">
         <v>306</v>
       </c>
@@ -5618,7 +5612,7 @@
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:6" s="20" customFormat="1">
+    <row r="38" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A38" s="15" t="s">
         <v>306</v>
       </c>
@@ -5634,7 +5628,7 @@
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="1:6" s="20" customFormat="1">
+    <row r="39" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A39" s="15" t="s">
         <v>306</v>
       </c>
@@ -5650,7 +5644,7 @@
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
     </row>
-    <row r="40" spans="1:6" s="20" customFormat="1">
+    <row r="40" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A40" s="15" t="s">
         <v>306</v>
       </c>
@@ -5666,7 +5660,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
     </row>
-    <row r="41" spans="1:6" s="20" customFormat="1" ht="38.25">
+    <row r="41" spans="1:6" s="20" customFormat="1" ht="45">
       <c r="A41" s="15" t="s">
         <v>306</v>
       </c>
@@ -5683,16 +5677,16 @@
       <c r="F41" s="12"/>
     </row>
     <row r="42" spans="1:6" s="20" customFormat="1">
-      <c r="A42" s="95" t="s">
+      <c r="A42" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-    </row>
-    <row r="43" spans="1:6" s="20" customFormat="1">
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+    </row>
+    <row r="43" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A43" s="15" t="s">
         <v>307</v>
       </c>
@@ -5724,7 +5718,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
     </row>
-    <row r="45" spans="1:6" s="20" customFormat="1">
+    <row r="45" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A45" s="15" t="s">
         <v>307</v>
       </c>
@@ -5740,7 +5734,7 @@
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
     </row>
-    <row r="46" spans="1:6" s="20" customFormat="1">
+    <row r="46" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A46" s="15" t="s">
         <v>307</v>
       </c>
@@ -5756,7 +5750,7 @@
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
     </row>
-    <row r="47" spans="1:6" s="20" customFormat="1">
+    <row r="47" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A47" s="15" t="s">
         <v>307</v>
       </c>
@@ -5772,7 +5766,7 @@
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
     </row>
-    <row r="48" spans="1:6" s="20" customFormat="1">
+    <row r="48" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A48" s="15" t="s">
         <v>307</v>
       </c>
@@ -5788,7 +5782,7 @@
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
     </row>
-    <row r="49" spans="1:6" s="20" customFormat="1">
+    <row r="49" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A49" s="15" t="s">
         <v>307</v>
       </c>
@@ -5804,7 +5798,7 @@
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
     </row>
-    <row r="50" spans="1:6" s="20" customFormat="1">
+    <row r="50" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A50" s="15" t="s">
         <v>307</v>
       </c>
@@ -5820,7 +5814,7 @@
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
     </row>
-    <row r="51" spans="1:6" s="20" customFormat="1" ht="25.5">
+    <row r="51" spans="1:6" s="20" customFormat="1" ht="30">
       <c r="A51" s="15" t="s">
         <v>307</v>
       </c>
@@ -5837,16 +5831,16 @@
       <c r="F51" s="12"/>
     </row>
     <row r="52" spans="1:6" s="20" customFormat="1">
-      <c r="A52" s="95" t="s">
+      <c r="A52" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="95"/>
-      <c r="C52" s="95"/>
-      <c r="D52" s="95"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="95"/>
-    </row>
-    <row r="53" spans="1:6" s="20" customFormat="1">
+      <c r="B52" s="93"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="93"/>
+    </row>
+    <row r="53" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A53" s="15" t="s">
         <v>308</v>
       </c>
@@ -5862,7 +5856,7 @@
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
     </row>
-    <row r="54" spans="1:6" s="20" customFormat="1">
+    <row r="54" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A54" s="15" t="s">
         <v>308</v>
       </c>
@@ -5878,7 +5872,7 @@
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
     </row>
-    <row r="55" spans="1:6" s="20" customFormat="1">
+    <row r="55" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A55" s="15" t="s">
         <v>308</v>
       </c>
@@ -5894,7 +5888,7 @@
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
     </row>
-    <row r="56" spans="1:6" s="20" customFormat="1">
+    <row r="56" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A56" s="15" t="s">
         <v>308</v>
       </c>
@@ -5927,16 +5921,16 @@
       <c r="F57" s="12"/>
     </row>
     <row r="58" spans="1:6" s="20" customFormat="1">
-      <c r="A58" s="95" t="s">
+      <c r="A58" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="B58" s="95"/>
-      <c r="C58" s="95"/>
-      <c r="D58" s="95"/>
-      <c r="E58" s="95"/>
-      <c r="F58" s="95"/>
-    </row>
-    <row r="59" spans="1:6" s="20" customFormat="1">
+      <c r="B58" s="93"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="93"/>
+      <c r="E58" s="93"/>
+      <c r="F58" s="93"/>
+    </row>
+    <row r="59" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A59" s="15" t="s">
         <v>309</v>
       </c>
@@ -5952,7 +5946,7 @@
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
     </row>
-    <row r="60" spans="1:6" s="20" customFormat="1">
+    <row r="60" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A60" s="15" t="s">
         <v>309</v>
       </c>
@@ -5968,7 +5962,7 @@
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
     </row>
-    <row r="61" spans="1:6" s="20" customFormat="1" ht="38.25">
+    <row r="61" spans="1:6" s="20" customFormat="1" ht="45">
       <c r="A61" s="15" t="s">
         <v>309</v>
       </c>
@@ -5984,7 +5978,7 @@
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
     </row>
-    <row r="62" spans="1:6" s="20" customFormat="1" ht="25.5">
+    <row r="62" spans="1:6" s="20" customFormat="1" ht="30">
       <c r="A62" s="15" t="s">
         <v>309</v>
       </c>
@@ -6001,16 +5995,16 @@
       <c r="F62" s="12"/>
     </row>
     <row r="63" spans="1:6" s="20" customFormat="1">
-      <c r="A63" s="95" t="s">
+      <c r="A63" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="B63" s="95"/>
-      <c r="C63" s="95"/>
-      <c r="D63" s="95"/>
-      <c r="E63" s="95"/>
-      <c r="F63" s="95"/>
-    </row>
-    <row r="64" spans="1:6" s="20" customFormat="1">
+      <c r="B63" s="93"/>
+      <c r="C63" s="93"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="93"/>
+      <c r="F63" s="93"/>
+    </row>
+    <row r="64" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A64" s="15" t="s">
         <v>310</v>
       </c>
@@ -6026,7 +6020,7 @@
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
     </row>
-    <row r="65" spans="1:6" s="20" customFormat="1">
+    <row r="65" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A65" s="15" t="s">
         <v>310</v>
       </c>
@@ -6042,7 +6036,7 @@
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
     </row>
-    <row r="66" spans="1:6" s="20" customFormat="1" ht="25.5">
+    <row r="66" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A66" s="15" t="s">
         <v>310</v>
       </c>
@@ -6058,7 +6052,7 @@
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
     </row>
-    <row r="67" spans="1:6" s="20" customFormat="1">
+    <row r="67" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A67" s="15" t="s">
         <v>310</v>
       </c>
@@ -6074,7 +6068,7 @@
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
     </row>
-    <row r="68" spans="1:6" s="20" customFormat="1" ht="25.5">
+    <row r="68" spans="1:6" s="20" customFormat="1" ht="30">
       <c r="A68" s="15" t="s">
         <v>310</v>
       </c>
@@ -6091,16 +6085,16 @@
       <c r="F68" s="12"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="95" t="s">
+      <c r="A69" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="B69" s="95"/>
-      <c r="C69" s="95"/>
-      <c r="D69" s="95"/>
-      <c r="E69" s="95"/>
-      <c r="F69" s="95"/>
-    </row>
-    <row r="70" spans="1:6" ht="38.25">
+      <c r="B69" s="93"/>
+      <c r="C69" s="93"/>
+      <c r="D69" s="93"/>
+      <c r="E69" s="93"/>
+      <c r="F69" s="93"/>
+    </row>
+    <row r="70" spans="1:6" ht="45">
       <c r="A70" s="15" t="s">
         <v>311</v>
       </c>
@@ -6117,16 +6111,16 @@
       <c r="F70" s="17"/>
     </row>
     <row r="71" spans="1:6" s="20" customFormat="1">
-      <c r="A71" s="94" t="s">
+      <c r="A71" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="94"/>
-      <c r="C71" s="94"/>
-      <c r="D71" s="94"/>
-      <c r="E71" s="94"/>
-      <c r="F71" s="94"/>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="B71" s="92"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="92"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="92"/>
+    </row>
+    <row r="72" spans="1:6" ht="15">
       <c r="A72" s="15" t="s">
         <v>312</v>
       </c>
@@ -6142,7 +6136,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" ht="15">
       <c r="A73" s="15" t="s">
         <v>312</v>
       </c>
@@ -6158,7 +6152,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" ht="15">
       <c r="A74" s="15" t="s">
         <v>312</v>
       </c>
@@ -6175,16 +6169,16 @@
       <c r="F74" s="4"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="94" t="s">
+      <c r="A75" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="B75" s="94"/>
-      <c r="C75" s="94"/>
-      <c r="D75" s="94"/>
-      <c r="E75" s="94"/>
-      <c r="F75" s="94"/>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="B75" s="92"/>
+      <c r="C75" s="92"/>
+      <c r="D75" s="92"/>
+      <c r="E75" s="92"/>
+      <c r="F75" s="92"/>
+    </row>
+    <row r="76" spans="1:6" ht="15">
       <c r="A76" s="15" t="s">
         <v>313</v>
       </c>
@@ -6200,7 +6194,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" ht="15">
       <c r="A77" s="15" t="s">
         <v>313</v>
       </c>
@@ -6216,7 +6210,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:6" s="20" customFormat="1">
+    <row r="78" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A78" s="15" t="s">
         <v>313</v>
       </c>
@@ -6233,16 +6227,16 @@
       <c r="F78" s="4"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="94" t="s">
+      <c r="A79" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="B79" s="94"/>
-      <c r="C79" s="94"/>
-      <c r="D79" s="94"/>
-      <c r="E79" s="94"/>
-      <c r="F79" s="94"/>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="B79" s="92"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="92"/>
+      <c r="F79" s="92"/>
+    </row>
+    <row r="80" spans="1:6" ht="15">
       <c r="A80" s="15" t="s">
         <v>314</v>
       </c>
@@ -6258,7 +6252,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6" ht="89.25">
+    <row r="81" spans="1:6" ht="105">
       <c r="A81" s="15" t="s">
         <v>314</v>
       </c>
@@ -6274,7 +6268,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" s="20" customFormat="1">
+    <row r="82" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A82" s="15" t="s">
         <v>314</v>
       </c>
@@ -6290,7 +6284,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" s="20" customFormat="1" ht="63.75">
+    <row r="83" spans="1:6" s="20" customFormat="1" ht="75">
       <c r="A83" s="15" t="s">
         <v>314</v>
       </c>
@@ -6306,7 +6300,7 @@
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
     </row>
-    <row r="84" spans="1:6" ht="38.25">
+    <row r="84" spans="1:6" ht="45">
       <c r="A84" s="15" t="s">
         <v>314</v>
       </c>
@@ -6323,16 +6317,16 @@
       <c r="F84" s="4"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="94" t="s">
+      <c r="A85" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="B85" s="94"/>
-      <c r="C85" s="94"/>
-      <c r="D85" s="94"/>
-      <c r="E85" s="94"/>
-      <c r="F85" s="94"/>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="B85" s="92"/>
+      <c r="C85" s="92"/>
+      <c r="D85" s="92"/>
+      <c r="E85" s="92"/>
+      <c r="F85" s="92"/>
+    </row>
+    <row r="86" spans="1:6" ht="15">
       <c r="A86" s="15" t="s">
         <v>315</v>
       </c>
@@ -6364,7 +6358,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" ht="15">
       <c r="A88" s="15" t="s">
         <v>315</v>
       </c>
@@ -6380,7 +6374,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6" ht="63.75">
+    <row r="89" spans="1:6" ht="75">
       <c r="A89" s="15" t="s">
         <v>315</v>
       </c>
@@ -6396,7 +6390,7 @@
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
     </row>
-    <row r="90" spans="1:6" ht="38.25">
+    <row r="90" spans="1:6" ht="45">
       <c r="A90" s="15" t="s">
         <v>315</v>
       </c>
@@ -6413,16 +6407,16 @@
       <c r="F90" s="4"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="95" t="s">
+      <c r="A91" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="B91" s="95"/>
-      <c r="C91" s="95"/>
-      <c r="D91" s="95"/>
-      <c r="E91" s="95"/>
-      <c r="F91" s="95"/>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="B91" s="93"/>
+      <c r="C91" s="93"/>
+      <c r="D91" s="93"/>
+      <c r="E91" s="93"/>
+      <c r="F91" s="93"/>
+    </row>
+    <row r="92" spans="1:6" ht="15">
       <c r="A92" s="15" t="s">
         <v>316</v>
       </c>
@@ -6438,7 +6432,7 @@
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
     </row>
-    <row r="93" spans="1:6" ht="153">
+    <row r="93" spans="1:6" ht="180">
       <c r="A93" s="15" t="s">
         <v>316</v>
       </c>
@@ -6454,7 +6448,7 @@
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" ht="15">
       <c r="A94" s="15" t="s">
         <v>316</v>
       </c>
@@ -6470,7 +6464,7 @@
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" ht="15">
       <c r="A95" s="15" t="s">
         <v>316</v>
       </c>
@@ -6486,7 +6480,7 @@
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" ht="15">
       <c r="A96" s="15" t="s">
         <v>316</v>
       </c>
@@ -6502,7 +6496,7 @@
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" ht="15">
       <c r="A97" s="15" t="s">
         <v>316</v>
       </c>
@@ -6518,7 +6512,7 @@
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" ht="15">
       <c r="A98" s="15" t="s">
         <v>316</v>
       </c>
@@ -6534,7 +6528,7 @@
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
     </row>
-    <row r="99" spans="1:6" ht="38.25">
+    <row r="99" spans="1:6" ht="45">
       <c r="A99" s="15" t="s">
         <v>316</v>
       </c>
@@ -6551,16 +6545,16 @@
       <c r="F99" s="12"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="95" t="s">
+      <c r="A100" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="B100" s="95"/>
-      <c r="C100" s="95"/>
-      <c r="D100" s="95"/>
-      <c r="E100" s="95"/>
-      <c r="F100" s="95"/>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="B100" s="93"/>
+      <c r="C100" s="93"/>
+      <c r="D100" s="93"/>
+      <c r="E100" s="93"/>
+      <c r="F100" s="93"/>
+    </row>
+    <row r="101" spans="1:6" ht="15">
       <c r="A101" s="15" t="s">
         <v>317</v>
       </c>
@@ -6576,7 +6570,7 @@
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" ht="15">
       <c r="A102" s="15" t="s">
         <v>317</v>
       </c>
@@ -6592,7 +6586,7 @@
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
     </row>
-    <row r="103" spans="1:6" ht="25.5">
+    <row r="103" spans="1:6" ht="15">
       <c r="A103" s="15" t="s">
         <v>317</v>
       </c>
@@ -6608,7 +6602,7 @@
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" ht="15">
       <c r="A104" s="15" t="s">
         <v>317</v>
       </c>
@@ -6624,7 +6618,7 @@
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
     </row>
-    <row r="105" spans="1:6" ht="25.5">
+    <row r="105" spans="1:6" ht="30">
       <c r="A105" s="15" t="s">
         <v>317</v>
       </c>
@@ -6641,14 +6635,14 @@
       <c r="F105" s="12"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="95" t="s">
+      <c r="A106" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="B106" s="95"/>
-      <c r="C106" s="95"/>
-      <c r="D106" s="95"/>
-      <c r="E106" s="95"/>
-      <c r="F106" s="95"/>
+      <c r="B106" s="93"/>
+      <c r="C106" s="93"/>
+      <c r="D106" s="93"/>
+      <c r="E106" s="93"/>
+      <c r="F106" s="93"/>
     </row>
     <row r="107" spans="1:6" ht="186" customHeight="1">
       <c r="A107" s="15" t="s">
@@ -6682,7 +6676,7 @@
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
     </row>
-    <row r="109" spans="1:6" ht="51">
+    <row r="109" spans="1:6" ht="45">
       <c r="A109" s="15" t="s">
         <v>318</v>
       </c>
@@ -6698,7 +6692,7 @@
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
     </row>
-    <row r="110" spans="1:6" ht="51">
+    <row r="110" spans="1:6" ht="45">
       <c r="A110" s="15" t="s">
         <v>318</v>
       </c>
@@ -6715,16 +6709,16 @@
       <c r="F110" s="12"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="95" t="s">
+      <c r="A111" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="B111" s="95"/>
-      <c r="C111" s="95"/>
-      <c r="D111" s="95"/>
-      <c r="E111" s="95"/>
-      <c r="F111" s="95"/>
-    </row>
-    <row r="112" spans="1:6" ht="38.25">
+      <c r="B111" s="93"/>
+      <c r="C111" s="93"/>
+      <c r="D111" s="93"/>
+      <c r="E111" s="93"/>
+      <c r="F111" s="93"/>
+    </row>
+    <row r="112" spans="1:6" ht="45">
       <c r="A112" s="15" t="s">
         <v>319</v>
       </c>
@@ -6740,7 +6734,7 @@
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" ht="15">
       <c r="A113" s="15" t="s">
         <v>319</v>
       </c>
@@ -6757,16 +6751,16 @@
       <c r="F113" s="12"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="95" t="s">
+      <c r="A114" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="B114" s="95"/>
-      <c r="C114" s="95"/>
-      <c r="D114" s="95"/>
-      <c r="E114" s="95"/>
-      <c r="F114" s="95"/>
-    </row>
-    <row r="115" spans="1:6" ht="38.25">
+      <c r="B114" s="93"/>
+      <c r="C114" s="93"/>
+      <c r="D114" s="93"/>
+      <c r="E114" s="93"/>
+      <c r="F114" s="93"/>
+    </row>
+    <row r="115" spans="1:6" ht="45">
       <c r="A115" s="15" t="s">
         <v>320</v>
       </c>
@@ -6782,7 +6776,7 @@
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" ht="15">
       <c r="A116" s="15" t="s">
         <v>320</v>
       </c>
@@ -6798,7 +6792,7 @@
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
     </row>
-    <row r="117" spans="1:6" ht="38.25">
+    <row r="117" spans="1:6" ht="45">
       <c r="A117" s="15" t="s">
         <v>320</v>
       </c>
@@ -6814,7 +6808,7 @@
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" ht="15">
       <c r="A118" s="15" t="s">
         <v>320</v>
       </c>
@@ -6830,7 +6824,7 @@
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
     </row>
-    <row r="119" spans="1:6" ht="38.25">
+    <row r="119" spans="1:6" ht="45">
       <c r="A119" s="15" t="s">
         <v>320</v>
       </c>
@@ -6846,7 +6840,7 @@
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" ht="15">
       <c r="A120" s="15" t="s">
         <v>320</v>
       </c>
@@ -6863,14 +6857,14 @@
       <c r="F120" s="12"/>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="95" t="s">
+      <c r="A121" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="B121" s="95"/>
-      <c r="C121" s="95"/>
-      <c r="D121" s="95"/>
-      <c r="E121" s="95"/>
-      <c r="F121" s="95"/>
+      <c r="B121" s="93"/>
+      <c r="C121" s="93"/>
+      <c r="D121" s="93"/>
+      <c r="E121" s="93"/>
+      <c r="F121" s="93"/>
     </row>
     <row r="122" spans="1:6" ht="84.75" customHeight="1">
       <c r="A122" s="15" t="s">
@@ -6888,7 +6882,7 @@
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" ht="15">
       <c r="A123" s="15" t="s">
         <v>321</v>
       </c>
@@ -6905,16 +6899,16 @@
       <c r="F123" s="12"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="95" t="s">
+      <c r="A124" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="B124" s="95"/>
-      <c r="C124" s="95"/>
-      <c r="D124" s="95"/>
-      <c r="E124" s="95"/>
-      <c r="F124" s="95"/>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="B124" s="93"/>
+      <c r="C124" s="93"/>
+      <c r="D124" s="93"/>
+      <c r="E124" s="93"/>
+      <c r="F124" s="93"/>
+    </row>
+    <row r="125" spans="1:6" ht="15">
       <c r="A125" s="15" t="s">
         <v>322</v>
       </c>
@@ -6930,7 +6924,7 @@
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
     </row>
-    <row r="126" spans="1:6" ht="38.25">
+    <row r="126" spans="1:6" ht="45">
       <c r="A126" s="15" t="s">
         <v>322</v>
       </c>
@@ -6947,16 +6941,16 @@
       <c r="F126" s="12"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="95" t="s">
+      <c r="A127" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="B127" s="95"/>
-      <c r="C127" s="95"/>
-      <c r="D127" s="95"/>
-      <c r="E127" s="95"/>
-      <c r="F127" s="95"/>
-    </row>
-    <row r="128" spans="1:6" ht="38.25">
+      <c r="B127" s="93"/>
+      <c r="C127" s="93"/>
+      <c r="D127" s="93"/>
+      <c r="E127" s="93"/>
+      <c r="F127" s="93"/>
+    </row>
+    <row r="128" spans="1:6" ht="45">
       <c r="A128" s="15" t="s">
         <v>323</v>
       </c>
@@ -6972,7 +6966,7 @@
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
     </row>
-    <row r="129" spans="1:6" ht="38.25">
+    <row r="129" spans="1:6" ht="45">
       <c r="A129" s="15" t="s">
         <v>323</v>
       </c>
@@ -6988,7 +6982,7 @@
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
     </row>
-    <row r="130" spans="1:6" ht="38.25">
+    <row r="130" spans="1:6" ht="45">
       <c r="A130" s="15" t="s">
         <v>323</v>
       </c>
@@ -7004,7 +6998,7 @@
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" ht="15">
       <c r="A131" s="15" t="s">
         <v>323</v>
       </c>
@@ -7021,14 +7015,14 @@
       <c r="F131" s="12"/>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="95" t="s">
+      <c r="A132" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="B132" s="95"/>
-      <c r="C132" s="95"/>
-      <c r="D132" s="95"/>
-      <c r="E132" s="95"/>
-      <c r="F132" s="95"/>
+      <c r="B132" s="93"/>
+      <c r="C132" s="93"/>
+      <c r="D132" s="93"/>
+      <c r="E132" s="93"/>
+      <c r="F132" s="93"/>
     </row>
     <row r="133" spans="1:6" ht="137.25" customHeight="1">
       <c r="A133" s="15" t="s">
@@ -7046,7 +7040,7 @@
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" ht="15">
       <c r="A134" s="15" t="s">
         <v>324</v>
       </c>
@@ -7062,7 +7056,7 @@
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" ht="15">
       <c r="A135" s="15" t="s">
         <v>324</v>
       </c>
@@ -7078,7 +7072,7 @@
       <c r="E135" s="12"/>
       <c r="F135" s="12"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" ht="15">
       <c r="A136" s="15" t="s">
         <v>324</v>
       </c>
@@ -7094,7 +7088,7 @@
       <c r="E136" s="12"/>
       <c r="F136" s="12"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" ht="15">
       <c r="A137" s="15" t="s">
         <v>324</v>
       </c>
@@ -7110,7 +7104,7 @@
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" ht="15">
       <c r="A138" s="15" t="s">
         <v>324</v>
       </c>
@@ -7126,7 +7120,7 @@
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" ht="15">
       <c r="A139" s="15" t="s">
         <v>324</v>
       </c>
@@ -7143,14 +7137,14 @@
       <c r="F139" s="12"/>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="95" t="s">
+      <c r="A140" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="B140" s="95"/>
-      <c r="C140" s="95"/>
-      <c r="D140" s="95"/>
-      <c r="E140" s="95"/>
-      <c r="F140" s="95"/>
+      <c r="B140" s="93"/>
+      <c r="C140" s="93"/>
+      <c r="D140" s="93"/>
+      <c r="E140" s="93"/>
+      <c r="F140" s="93"/>
     </row>
     <row r="141" spans="1:6" ht="131.25" customHeight="1">
       <c r="A141" s="15" t="s">
@@ -7168,7 +7162,7 @@
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" ht="15">
       <c r="A142" s="15" t="s">
         <v>325</v>
       </c>
@@ -7184,7 +7178,7 @@
       <c r="E142" s="12"/>
       <c r="F142" s="12"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" ht="15">
       <c r="A143" s="15" t="s">
         <v>325</v>
       </c>
@@ -7200,7 +7194,7 @@
       <c r="E143" s="12"/>
       <c r="F143" s="12"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" ht="15">
       <c r="A144" s="15" t="s">
         <v>325</v>
       </c>
@@ -7216,7 +7210,7 @@
       <c r="E144" s="12"/>
       <c r="F144" s="12"/>
     </row>
-    <row r="145" spans="1:6" s="20" customFormat="1">
+    <row r="145" spans="1:6" s="20" customFormat="1" ht="15">
       <c r="A145" s="15" t="s">
         <v>325</v>
       </c>
@@ -7232,7 +7226,7 @@
       <c r="E145" s="12"/>
       <c r="F145" s="12"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" ht="15">
       <c r="A146" s="15" t="s">
         <v>325</v>
       </c>
@@ -7248,7 +7242,7 @@
       <c r="E146" s="12"/>
       <c r="F146" s="12"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" ht="15">
       <c r="A147" s="15" t="s">
         <v>325</v>
       </c>
@@ -7264,7 +7258,7 @@
       <c r="E147" s="12"/>
       <c r="F147" s="12"/>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" ht="15">
       <c r="A148" s="15" t="s">
         <v>325</v>
       </c>
@@ -7281,16 +7275,16 @@
       <c r="F148" s="12"/>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="95" t="s">
+      <c r="A149" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="B149" s="95"/>
-      <c r="C149" s="95"/>
-      <c r="D149" s="95"/>
-      <c r="E149" s="95"/>
-      <c r="F149" s="95"/>
-    </row>
-    <row r="150" spans="1:6">
+      <c r="B149" s="93"/>
+      <c r="C149" s="93"/>
+      <c r="D149" s="93"/>
+      <c r="E149" s="93"/>
+      <c r="F149" s="93"/>
+    </row>
+    <row r="150" spans="1:6" ht="15">
       <c r="A150" s="15" t="s">
         <v>326</v>
       </c>
@@ -7306,7 +7300,7 @@
       <c r="E150" s="12"/>
       <c r="F150" s="12"/>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" ht="15">
       <c r="A151" s="15" t="s">
         <v>326</v>
       </c>
@@ -7322,7 +7316,7 @@
       <c r="E151" s="12"/>
       <c r="F151" s="12"/>
     </row>
-    <row r="152" spans="1:6" ht="25.5">
+    <row r="152" spans="1:6" ht="30">
       <c r="A152" s="15" t="s">
         <v>326</v>
       </c>
@@ -7339,16 +7333,16 @@
       <c r="F152" s="12"/>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="95" t="s">
+      <c r="A153" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="B153" s="95"/>
-      <c r="C153" s="95"/>
-      <c r="D153" s="95"/>
-      <c r="E153" s="95"/>
-      <c r="F153" s="95"/>
-    </row>
-    <row r="154" spans="1:6" ht="25.5">
+      <c r="B153" s="93"/>
+      <c r="C153" s="93"/>
+      <c r="D153" s="93"/>
+      <c r="E153" s="93"/>
+      <c r="F153" s="93"/>
+    </row>
+    <row r="154" spans="1:6" ht="15">
       <c r="A154" s="15" t="s">
         <v>327</v>
       </c>
@@ -7364,7 +7358,7 @@
       <c r="E154" s="12"/>
       <c r="F154" s="12"/>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" ht="15">
       <c r="A155" s="15" t="s">
         <v>327</v>
       </c>
@@ -7380,7 +7374,7 @@
       <c r="E155" s="12"/>
       <c r="F155" s="12"/>
     </row>
-    <row r="156" spans="1:6" ht="25.5">
+    <row r="156" spans="1:6" ht="30">
       <c r="A156" s="15" t="s">
         <v>327</v>
       </c>
@@ -7397,16 +7391,16 @@
       <c r="F156" s="12"/>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="95" t="s">
+      <c r="A157" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="B157" s="95"/>
-      <c r="C157" s="95"/>
-      <c r="D157" s="95"/>
-      <c r="E157" s="95"/>
-      <c r="F157" s="95"/>
-    </row>
-    <row r="158" spans="1:6">
+      <c r="B157" s="93"/>
+      <c r="C157" s="93"/>
+      <c r="D157" s="93"/>
+      <c r="E157" s="93"/>
+      <c r="F157" s="93"/>
+    </row>
+    <row r="158" spans="1:6" ht="15">
       <c r="A158" s="15" t="s">
         <v>328</v>
       </c>
@@ -7422,7 +7416,7 @@
       <c r="E158" s="12"/>
       <c r="F158" s="12"/>
     </row>
-    <row r="159" spans="1:6" ht="51">
+    <row r="159" spans="1:6" ht="60">
       <c r="A159" s="15" t="s">
         <v>328</v>
       </c>
@@ -7439,16 +7433,16 @@
       <c r="F159" s="12"/>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="95" t="s">
+      <c r="A160" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="B160" s="95"/>
-      <c r="C160" s="95"/>
-      <c r="D160" s="95"/>
-      <c r="E160" s="95"/>
-      <c r="F160" s="95"/>
-    </row>
-    <row r="161" spans="1:6" ht="51">
+      <c r="B160" s="93"/>
+      <c r="C160" s="93"/>
+      <c r="D160" s="93"/>
+      <c r="E160" s="93"/>
+      <c r="F160" s="93"/>
+    </row>
+    <row r="161" spans="1:6" ht="45">
       <c r="A161" s="15" t="s">
         <v>329</v>
       </c>
@@ -7464,7 +7458,7 @@
       <c r="E161" s="12"/>
       <c r="F161" s="12"/>
     </row>
-    <row r="162" spans="1:6" ht="51">
+    <row r="162" spans="1:6" ht="45">
       <c r="A162" s="15" t="s">
         <v>329</v>
       </c>
@@ -7480,7 +7474,7 @@
       <c r="E162" s="12"/>
       <c r="F162" s="12"/>
     </row>
-    <row r="163" spans="1:6" ht="51">
+    <row r="163" spans="1:6" ht="45">
       <c r="A163" s="15" t="s">
         <v>329</v>
       </c>
@@ -7496,7 +7490,7 @@
       <c r="E163" s="12"/>
       <c r="F163" s="12"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" ht="15">
       <c r="A164" s="15" t="s">
         <v>329</v>
       </c>
@@ -7513,16 +7507,16 @@
       <c r="F164" s="12"/>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="94" t="s">
+      <c r="A165" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="B165" s="94"/>
-      <c r="C165" s="94"/>
-      <c r="D165" s="94"/>
-      <c r="E165" s="94"/>
-      <c r="F165" s="94"/>
-    </row>
-    <row r="166" spans="1:6">
+      <c r="B165" s="92"/>
+      <c r="C165" s="92"/>
+      <c r="D165" s="92"/>
+      <c r="E165" s="92"/>
+      <c r="F165" s="92"/>
+    </row>
+    <row r="166" spans="1:6" ht="15">
       <c r="A166" s="15" t="s">
         <v>330</v>
       </c>
@@ -7538,7 +7532,7 @@
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" ht="15">
       <c r="A167" s="15" t="s">
         <v>330</v>
       </c>
@@ -7570,7 +7564,7 @@
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" ht="15">
       <c r="A169" s="15" t="s">
         <v>330</v>
       </c>
@@ -7586,7 +7580,7 @@
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" ht="15">
       <c r="A170" s="15" t="s">
         <v>330</v>
       </c>
@@ -7602,7 +7596,7 @@
       <c r="E170" s="12"/>
       <c r="F170" s="12"/>
     </row>
-    <row r="171" spans="1:6" ht="38.25">
+    <row r="171" spans="1:6" ht="45">
       <c r="A171" s="15" t="s">
         <v>330</v>
       </c>
@@ -7619,16 +7613,16 @@
       <c r="F171" s="4"/>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="94" t="s">
+      <c r="A172" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="B172" s="94"/>
-      <c r="C172" s="94"/>
-      <c r="D172" s="94"/>
-      <c r="E172" s="94"/>
-      <c r="F172" s="94"/>
-    </row>
-    <row r="173" spans="1:6">
+      <c r="B172" s="92"/>
+      <c r="C172" s="92"/>
+      <c r="D172" s="92"/>
+      <c r="E172" s="92"/>
+      <c r="F172" s="92"/>
+    </row>
+    <row r="173" spans="1:6" ht="15">
       <c r="A173" s="15" t="s">
         <v>331</v>
       </c>
@@ -7644,7 +7638,7 @@
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
     </row>
-    <row r="174" spans="1:6" ht="89.25">
+    <row r="174" spans="1:6" ht="105">
       <c r="A174" s="15" t="s">
         <v>331</v>
       </c>
@@ -7660,7 +7654,7 @@
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" ht="15">
       <c r="A175" s="15" t="s">
         <v>331</v>
       </c>
@@ -7676,7 +7670,7 @@
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" ht="15">
       <c r="A176" s="15" t="s">
         <v>331</v>
       </c>
@@ -7692,7 +7686,7 @@
       <c r="E176" s="12"/>
       <c r="F176" s="12"/>
     </row>
-    <row r="177" spans="1:6" ht="38.25">
+    <row r="177" spans="1:6" ht="45">
       <c r="A177" s="15" t="s">
         <v>331</v>
       </c>
@@ -7710,6 +7704,25 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="A149:F149"/>
+    <mergeCell ref="A153:F153"/>
+    <mergeCell ref="A157:F157"/>
+    <mergeCell ref="A160:F160"/>
+    <mergeCell ref="A165:F165"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="A127:F127"/>
     <mergeCell ref="A71:F71"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A6:F6"/>
@@ -7722,25 +7735,6 @@
     <mergeCell ref="A58:F58"/>
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="A149:F149"/>
-    <mergeCell ref="A153:F153"/>
-    <mergeCell ref="A157:F157"/>
-    <mergeCell ref="A160:F160"/>
-    <mergeCell ref="A165:F165"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -7755,14 +7749,14 @@
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
+    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" state="hidden">
       <selection activeCell="K30" sqref="K30"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
-    <customSheetView guid="{94CD62AC-73F4-4EEF-A82F-18B6087DF3D5}" state="hidden">
+    <customSheetView guid="{C5303581-2D9C-42C1-9BA2-807707C51816}">
       <selection activeCell="K30" sqref="K30"/>
       <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
     </customSheetView>
@@ -7782,19 +7776,19 @@
       <selection activeCell="D38" sqref="A38:D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -7813,10 +7807,10 @@
       <c r="E1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="105" t="s">
+      <c r="L1" s="94" t="s">
         <v>211</v>
       </c>
-      <c r="M1" s="106"/>
+      <c r="M1" s="95"/>
       <c r="N1" s="19"/>
       <c r="O1" s="19"/>
     </row>
@@ -7836,14 +7830,14 @@
       <c r="E2" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="L2" s="107" t="s">
+      <c r="L2" s="96" t="s">
         <v>213</v>
       </c>
-      <c r="M2" s="108"/>
-      <c r="N2" s="107" t="s">
+      <c r="M2" s="97"/>
+      <c r="N2" s="96" t="s">
         <v>214</v>
       </c>
-      <c r="O2" s="108"/>
+      <c r="O2" s="97"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="40" t="s">
@@ -8085,11 +8079,11 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="B16" s="109" t="s">
+      <c r="B16" s="98" t="s">
         <v>248</v>
       </c>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
       <c r="N16" s="85"/>
     </row>
     <row r="17" spans="1:14">
@@ -8107,7 +8101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.45" hidden="1" customHeight="1">
+    <row r="18" spans="1:14" ht="14.5" hidden="1" customHeight="1">
       <c r="B18" s="57">
         <v>353509047</v>
       </c>
@@ -8139,7 +8133,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="14.45" hidden="1" customHeight="1">
+    <row r="20" spans="1:14" ht="14.5" hidden="1" customHeight="1">
       <c r="B20" s="57">
         <v>353512437</v>
       </c>
@@ -8190,7 +8184,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="14.45" hidden="1" customHeight="1">
+    <row r="23" spans="1:14" ht="14.5" hidden="1" customHeight="1">
       <c r="B23" s="57">
         <v>353505050</v>
       </c>
@@ -8207,7 +8201,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="14.45" hidden="1" customHeight="1">
+    <row r="24" spans="1:14" ht="14.5" hidden="1" customHeight="1">
       <c r="B24" s="57">
         <v>353502537</v>
       </c>
@@ -8253,7 +8247,7 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="96">
+      <c r="A27" s="99">
         <v>3535126841</v>
       </c>
       <c r="B27" s="58">
@@ -8265,7 +8259,7 @@
       <c r="D27" s="58">
         <v>22060000176</v>
       </c>
-      <c r="E27" s="110" t="s">
+      <c r="E27" s="100" t="s">
         <v>255</v>
       </c>
       <c r="F27" t="s">
@@ -8276,7 +8270,7 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="96"/>
+      <c r="A28" s="99"/>
       <c r="B28" s="58">
         <v>353512684</v>
       </c>
@@ -8286,10 +8280,10 @@
       <c r="D28" s="58">
         <v>22060000100</v>
       </c>
-      <c r="E28" s="111"/>
-    </row>
-    <row r="29" spans="1:14" ht="14.45" customHeight="1">
-      <c r="A29" s="96">
+      <c r="E28" s="101"/>
+    </row>
+    <row r="29" spans="1:14" ht="14.5" customHeight="1">
+      <c r="A29" s="99">
         <v>3535079734</v>
       </c>
       <c r="B29" s="59">
@@ -8301,7 +8295,7 @@
       <c r="D29" s="59">
         <v>22040000340</v>
       </c>
-      <c r="E29" s="99" t="s">
+      <c r="E29" s="104" t="s">
         <v>255</v>
       </c>
       <c r="F29" t="s">
@@ -8312,7 +8306,7 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="96"/>
+      <c r="A30" s="99"/>
       <c r="B30" s="59">
         <v>353498904</v>
       </c>
@@ -8322,10 +8316,10 @@
       <c r="D30" s="59">
         <v>22010000081</v>
       </c>
-      <c r="E30" s="100"/>
+      <c r="E30" s="105"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="96">
+      <c r="A31" s="99">
         <v>3534990565</v>
       </c>
       <c r="B31" s="60">
@@ -8337,12 +8331,12 @@
       <c r="D31" s="60">
         <v>22050000376</v>
       </c>
-      <c r="E31" s="101" t="s">
+      <c r="E31" s="106" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="96"/>
+      <c r="A32" s="99"/>
       <c r="B32" s="60">
         <v>353499056</v>
       </c>
@@ -8352,10 +8346,10 @@
       <c r="D32" s="60">
         <v>22010000091</v>
       </c>
-      <c r="E32" s="102"/>
+      <c r="E32" s="107"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="96">
+      <c r="A33" s="99">
         <v>3534999188</v>
       </c>
       <c r="B33" s="61">
@@ -8367,12 +8361,12 @@
       <c r="D33" s="61">
         <v>22040000339</v>
       </c>
-      <c r="E33" s="103" t="s">
+      <c r="E33" s="108" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="96"/>
+      <c r="A34" s="99"/>
       <c r="B34" s="61">
         <v>353499918</v>
       </c>
@@ -8382,10 +8376,10 @@
       <c r="D34" s="61">
         <v>22010000119</v>
       </c>
-      <c r="E34" s="104"/>
+      <c r="E34" s="109"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="96">
+      <c r="A35" s="99">
         <v>3535009948</v>
       </c>
       <c r="B35" s="62">
@@ -8397,12 +8391,12 @@
       <c r="D35" s="62">
         <v>22050000290</v>
       </c>
-      <c r="E35" s="97" t="s">
+      <c r="E35" s="102" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="96"/>
+      <c r="A36" s="99"/>
       <c r="B36" s="62">
         <v>353500994</v>
       </c>
@@ -8412,7 +8406,7 @@
       <c r="D36" s="62">
         <v>22010000149</v>
       </c>
-      <c r="E36" s="98"/>
+      <c r="E36" s="103"/>
     </row>
     <row r="37" spans="1:12">
       <c r="B37" s="54">
@@ -8644,12 +8638,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="E27:E28"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="E29:E30"/>
@@ -8658,6 +8646,12 @@
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="E33:E34"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="E27:E28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L4" r:id="rId1" xr:uid="{7C10C165-A484-4205-BDF2-146D4F5D5832}"/>
@@ -8684,12 +8678,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C71B05ED7860F1429BB192A8AD3ECF9C" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7bb17ca7624675e957ee0f1a62aa5509">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1dc586d3-033a-453c-a736-0de408b0dcee" xmlns:ns4="da96f4a7-4178-4915-9502-40e1bdbdebc7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f4946a5cb97ee8e437c64f89eb7aa62" ns3:_="" ns4:_="">
     <xsd:import namespace="1dc586d3-033a-453c-a736-0de408b0dcee"/>
@@ -8912,6 +8900,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8F70963-92F7-47E6-9A64-91D00358ED7E}">
   <ds:schemaRefs>
@@ -8921,15 +8915,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B2A354E-DAD2-4269-9DC6-273AA5A6AF79}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC722361-1DC9-4A92-A0C2-88E5287125F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8946,4 +8931,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B2A354E-DAD2-4269-9DC6-273AA5A6AF79}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>